--- a/Work_List.xlsx
+++ b/Work_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uxidesign\Desktop\작업\아뜰리에\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E1141B-4492-4E49-A019-F91C3205CF70}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E056455-605C-4EA5-847C-39DE25406E76}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -602,7 +602,7 @@
   <dimension ref="A2:H103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
